--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Efna1-Epha3.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Efna1-Epha3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,7 +76,13 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
   <si>
     <t>sCs</t>
@@ -443,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -516,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>2.26571312333418</v>
+        <v>18.57067033333334</v>
       </c>
       <c r="H2">
-        <v>2.26571312333418</v>
+        <v>55.712011</v>
       </c>
       <c r="I2">
-        <v>0.6684571705884916</v>
+        <v>0.834164862818447</v>
       </c>
       <c r="J2">
-        <v>0.6684571705884916</v>
+        <v>0.8341648628184472</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>45.8347313821402</v>
+        <v>46.25093466666667</v>
       </c>
       <c r="N2">
-        <v>45.8347313821402</v>
+        <v>138.752804</v>
       </c>
       <c r="O2">
-        <v>0.957434808969601</v>
+        <v>0.9569015955251317</v>
       </c>
       <c r="P2">
-        <v>0.957434808969601</v>
+        <v>0.9569015955251318</v>
       </c>
       <c r="Q2">
-        <v>103.848352397012</v>
+        <v>858.910860303205</v>
       </c>
       <c r="R2">
-        <v>103.848352397012</v>
+        <v>7730.197742728845</v>
       </c>
       <c r="S2">
-        <v>0.6400041634267525</v>
+        <v>0.7982136881619746</v>
       </c>
       <c r="T2">
-        <v>0.6400041634267525</v>
+        <v>0.7982136881619747</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -578,123 +584,123 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
         <v>22</v>
       </c>
-      <c r="C3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" t="s">
-        <v>21</v>
-      </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>2.26571312333418</v>
+        <v>18.57067033333334</v>
       </c>
       <c r="H3">
-        <v>2.26571312333418</v>
+        <v>55.712011</v>
       </c>
       <c r="I3">
-        <v>0.6684571705884916</v>
+        <v>0.834164862818447</v>
       </c>
       <c r="J3">
-        <v>0.6684571705884916</v>
+        <v>0.8341648628184472</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>2.03769915072073</v>
+        <v>0.01632333333333333</v>
       </c>
       <c r="N3">
-        <v>2.03769915072073</v>
+        <v>0.04897</v>
       </c>
       <c r="O3">
-        <v>0.04256519103039897</v>
+        <v>0.0003377190931065126</v>
       </c>
       <c r="P3">
-        <v>0.04256519103039897</v>
+        <v>0.0003377190931065127</v>
       </c>
       <c r="Q3">
-        <v>4.616841707194872</v>
+        <v>0.3031352420744445</v>
       </c>
       <c r="R3">
-        <v>4.616841707194872</v>
+        <v>2.72821717867</v>
       </c>
       <c r="S3">
-        <v>0.02845300716173914</v>
+        <v>0.0002817134009723644</v>
       </c>
       <c r="T3">
-        <v>0.02845300716173914</v>
+        <v>0.0002817134009723645</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>23</v>
       </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>1.12375328232874</v>
+        <v>18.57067033333334</v>
       </c>
       <c r="H4">
-        <v>1.12375328232874</v>
+        <v>55.712011</v>
       </c>
       <c r="I4">
-        <v>0.3315428294115084</v>
+        <v>0.834164862818447</v>
       </c>
       <c r="J4">
-        <v>0.3315428294115084</v>
+        <v>0.8341648628184472</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>45.8347313821402</v>
+        <v>2.066797333333333</v>
       </c>
       <c r="N4">
-        <v>45.8347313821402</v>
+        <v>6.200391999999999</v>
       </c>
       <c r="O4">
-        <v>0.957434808969601</v>
+        <v>0.04276068538176181</v>
       </c>
       <c r="P4">
-        <v>0.957434808969601</v>
+        <v>0.04276068538176181</v>
       </c>
       <c r="Q4">
-        <v>51.50692983533615</v>
+        <v>38.38181192314578</v>
       </c>
       <c r="R4">
-        <v>51.50692983533615</v>
+        <v>345.436307308312</v>
       </c>
       <c r="S4">
-        <v>0.3174306455428486</v>
+        <v>0.03566946125550011</v>
       </c>
       <c r="T4">
-        <v>0.3174306455428486</v>
+        <v>0.03566946125550012</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -702,61 +708,557 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>21</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.12375328232874</v>
+        <v>2.333117</v>
       </c>
       <c r="H5">
-        <v>1.12375328232874</v>
+        <v>6.999351000000001</v>
       </c>
       <c r="I5">
-        <v>0.3315428294115084</v>
+        <v>0.1047998907584427</v>
       </c>
       <c r="J5">
-        <v>0.3315428294115084</v>
+        <v>0.1047998907584427</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.03769915072073</v>
+        <v>46.25093466666667</v>
       </c>
       <c r="N5">
-        <v>2.03769915072073</v>
+        <v>138.752804</v>
       </c>
       <c r="O5">
-        <v>0.04256519103039897</v>
+        <v>0.9569015955251317</v>
       </c>
       <c r="P5">
-        <v>0.04256519103039897</v>
+        <v>0.9569015955251318</v>
       </c>
       <c r="Q5">
-        <v>2.289871109020906</v>
+        <v>107.9088419366893</v>
       </c>
       <c r="R5">
-        <v>2.289871109020906</v>
+        <v>971.1795774302041</v>
       </c>
       <c r="S5">
-        <v>0.01411218386865983</v>
+        <v>0.1002831826776133</v>
       </c>
       <c r="T5">
-        <v>0.01411218386865983</v>
+        <v>0.1002831826776134</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>2.333117</v>
+      </c>
+      <c r="H6">
+        <v>6.999351000000001</v>
+      </c>
+      <c r="I6">
+        <v>0.1047998907584427</v>
+      </c>
+      <c r="J6">
+        <v>0.1047998907584427</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M6">
+        <v>0.01632333333333333</v>
+      </c>
+      <c r="N6">
+        <v>0.04897</v>
+      </c>
+      <c r="O6">
+        <v>0.0003377190931065126</v>
+      </c>
+      <c r="P6">
+        <v>0.0003377190931065127</v>
+      </c>
+      <c r="Q6">
+        <v>0.03808424649666667</v>
+      </c>
+      <c r="R6">
+        <v>0.34275821847</v>
+      </c>
+      <c r="S6">
+        <v>3.539292406460287E-05</v>
+      </c>
+      <c r="T6">
+        <v>3.539292406460288E-05</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>2.333117</v>
+      </c>
+      <c r="H7">
+        <v>6.999351000000001</v>
+      </c>
+      <c r="I7">
+        <v>0.1047998907584427</v>
+      </c>
+      <c r="J7">
+        <v>0.1047998907584427</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>2.066797333333333</v>
+      </c>
+      <c r="N7">
+        <v>6.200391999999999</v>
+      </c>
+      <c r="O7">
+        <v>0.04276068538176181</v>
+      </c>
+      <c r="P7">
+        <v>0.04276068538176181</v>
+      </c>
+      <c r="Q7">
+        <v>4.822079993954667</v>
+      </c>
+      <c r="R7">
+        <v>43.398719945592</v>
+      </c>
+      <c r="S7">
+        <v>0.004481315156764776</v>
+      </c>
+      <c r="T7">
+        <v>0.004481315156764777</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G8">
+        <v>0.118438</v>
+      </c>
+      <c r="H8">
+        <v>0.355314</v>
+      </c>
+      <c r="I8">
+        <v>0.005320045870673627</v>
+      </c>
+      <c r="J8">
+        <v>0.005320045870673628</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>46.25093466666667</v>
+      </c>
+      <c r="N8">
+        <v>138.752804</v>
+      </c>
+      <c r="O8">
+        <v>0.9569015955251317</v>
+      </c>
+      <c r="P8">
+        <v>0.9569015955251318</v>
+      </c>
+      <c r="Q8">
+        <v>5.477868200050667</v>
+      </c>
+      <c r="R8">
+        <v>49.30081380045601</v>
+      </c>
+      <c r="S8">
+        <v>0.005090760381914482</v>
+      </c>
+      <c r="T8">
+        <v>0.005090760381914483</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G9">
+        <v>0.118438</v>
+      </c>
+      <c r="H9">
+        <v>0.355314</v>
+      </c>
+      <c r="I9">
+        <v>0.005320045870673627</v>
+      </c>
+      <c r="J9">
+        <v>0.005320045870673628</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M9">
+        <v>0.01632333333333333</v>
+      </c>
+      <c r="N9">
+        <v>0.04897</v>
+      </c>
+      <c r="O9">
+        <v>0.0003377190931065126</v>
+      </c>
+      <c r="P9">
+        <v>0.0003377190931065127</v>
+      </c>
+      <c r="Q9">
+        <v>0.001933302953333333</v>
+      </c>
+      <c r="R9">
+        <v>0.01739972658</v>
+      </c>
+      <c r="S9">
+        <v>1.796681066728945E-06</v>
+      </c>
+      <c r="T9">
+        <v>1.796681066728945E-06</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>0.118438</v>
+      </c>
+      <c r="H10">
+        <v>0.355314</v>
+      </c>
+      <c r="I10">
+        <v>0.005320045870673627</v>
+      </c>
+      <c r="J10">
+        <v>0.005320045870673628</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>2.066797333333333</v>
+      </c>
+      <c r="N10">
+        <v>6.200391999999999</v>
+      </c>
+      <c r="O10">
+        <v>0.04276068538176181</v>
+      </c>
+      <c r="P10">
+        <v>0.04276068538176181</v>
+      </c>
+      <c r="Q10">
+        <v>0.2447873425653333</v>
+      </c>
+      <c r="R10">
+        <v>2.203086083088</v>
+      </c>
+      <c r="S10">
+        <v>0.000227488807692416</v>
+      </c>
+      <c r="T10">
+        <v>0.0002274888076924161</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1.240364666666667</v>
+      </c>
+      <c r="H11">
+        <v>3.721094</v>
+      </c>
+      <c r="I11">
+        <v>0.05571520055243645</v>
+      </c>
+      <c r="J11">
+        <v>0.05571520055243646</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>46.25093466666667</v>
+      </c>
+      <c r="N11">
+        <v>138.752804</v>
+      </c>
+      <c r="O11">
+        <v>0.9569015955251317</v>
+      </c>
+      <c r="P11">
+        <v>0.9569015955251318</v>
+      </c>
+      <c r="Q11">
+        <v>57.36802516084177</v>
+      </c>
+      <c r="R11">
+        <v>516.312226447576</v>
+      </c>
+      <c r="S11">
+        <v>0.05331396430362913</v>
+      </c>
+      <c r="T11">
+        <v>0.05331396430362915</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1.240364666666667</v>
+      </c>
+      <c r="H12">
+        <v>3.721094</v>
+      </c>
+      <c r="I12">
+        <v>0.05571520055243645</v>
+      </c>
+      <c r="J12">
+        <v>0.05571520055243646</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M12">
+        <v>0.01632333333333333</v>
+      </c>
+      <c r="N12">
+        <v>0.04897</v>
+      </c>
+      <c r="O12">
+        <v>0.0003377190931065126</v>
+      </c>
+      <c r="P12">
+        <v>0.0003377190931065127</v>
+      </c>
+      <c r="Q12">
+        <v>0.02024688590888889</v>
+      </c>
+      <c r="R12">
+        <v>0.18222197318</v>
+      </c>
+      <c r="S12">
+        <v>1.881608700281631E-05</v>
+      </c>
+      <c r="T12">
+        <v>1.881608700281632E-05</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1.240364666666667</v>
+      </c>
+      <c r="H13">
+        <v>3.721094</v>
+      </c>
+      <c r="I13">
+        <v>0.05571520055243645</v>
+      </c>
+      <c r="J13">
+        <v>0.05571520055243646</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>2.066797333333333</v>
+      </c>
+      <c r="N13">
+        <v>6.200391999999999</v>
+      </c>
+      <c r="O13">
+        <v>0.04276068538176181</v>
+      </c>
+      <c r="P13">
+        <v>0.04276068538176181</v>
+      </c>
+      <c r="Q13">
+        <v>2.563582385427555</v>
+      </c>
+      <c r="R13">
+        <v>23.072241468848</v>
+      </c>
+      <c r="S13">
+        <v>0.002382420161804497</v>
+      </c>
+      <c r="T13">
+        <v>0.002382420161804497</v>
       </c>
     </row>
   </sheetData>
